--- a/code/Screener/reports/2022-07-26_decision_metrics_df.xlsx
+++ b/code/Screener/reports/2022-07-26_decision_metrics_df.xlsx
@@ -15,6 +15,12 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EDA-correlation" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Profiling Report" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables Data Profile" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EDA-missingValues" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EDA-NumericfeatureDistribution" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EDA-Boxplot" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EDA-NonNumericFeatures" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EDA-Feature Histogram" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="performancePlots" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -250,6 +256,679 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5019675" cy="5124450"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>43</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5105400" cy="7124700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9791700" cy="9382125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9105900" cy="8553450"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6667500" cy="2581275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="23088600" cy="20888325"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="10353675" cy="4838700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>28</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="10353675" cy="4838700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>55</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="10267950" cy="4838700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>82</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="10353675" cy="4838700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>109</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="10439400" cy="4838700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>136</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="10315575" cy="4838700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>163</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="10439400" cy="4838700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId7"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>190</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="10439400" cy="4838700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId8"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>217</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="10267950" cy="4838700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId9"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>244</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="10439400" cy="4838700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId10"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>271</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="10267950" cy="4838700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId11"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>298</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="10315575" cy="4838700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId12"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>325</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="10353675" cy="4838700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId13"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>352</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="10267950" cy="4838700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId14"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>379</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="10439400" cy="4838700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId15"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>406</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="10267950" cy="4838700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId16"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>433</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="10439400" cy="4838700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId17"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>460</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="10267950" cy="4838700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="18" name="Image 18" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId18"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>487</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="10439400" cy="4838700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="19" name="Image 19" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId19"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2349,6 +3028,101 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -34978,7 +35752,6 @@
       <c r="AK8" t="n">
         <v>-208799.9522737435</v>
       </c>
-      <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="n">
         <v>313690.4409070586</v>
       </c>
@@ -35401,7 +36174,6 @@
       <c r="AK9" t="n">
         <v>-1531500.152587833</v>
       </c>
-      <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="n">
         <v>-931885.489129595</v>
       </c>
@@ -35824,7 +36596,6 @@
       <c r="AK10" t="n">
         <v>0</v>
       </c>
-      <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="n">
         <v>4587044.677546538</v>
       </c>
@@ -37947,7 +38718,6 @@
       <c r="AK15" t="n">
         <v>8.682585236057692</v>
       </c>
-      <c r="AL15" t="inlineStr"/>
       <c r="AM15" t="n">
         <v>20.43597306538516</v>
       </c>
@@ -38370,7 +39140,6 @@
       <c r="AK16" t="n">
         <v>-2.963337804169198</v>
       </c>
-      <c r="AL16" t="inlineStr"/>
       <c r="AM16" t="n">
         <v>3.846251665261328</v>
       </c>
@@ -38793,7 +39562,6 @@
       <c r="AK17" t="n">
         <v>-129291.4836078784</v>
       </c>
-      <c r="AL17" t="inlineStr"/>
       <c r="AM17" t="n">
         <v>157129.0661982576</v>
       </c>
@@ -39216,7 +39984,6 @@
       <c r="AK18" t="n">
         <v>-103777.661226731</v>
       </c>
-      <c r="AL18" t="inlineStr"/>
       <c r="AM18" t="n">
         <v>4587044.677546538</v>
       </c>
@@ -40489,7 +41256,6 @@
       <c r="AK21" t="n">
         <v>-214922.6674242603</v>
       </c>
-      <c r="AL21" t="inlineStr"/>
       <c r="AM21" t="n">
         <v>16034.10144608144</v>
       </c>
@@ -40912,7 +41678,6 @@
       <c r="AK22" t="n">
         <v>-129291.4836078784</v>
       </c>
-      <c r="AL22" t="inlineStr"/>
       <c r="AM22" t="n">
         <v>157129.0661982576</v>
       </c>
@@ -41335,7 +42100,6 @@
       <c r="AK23" t="n">
         <v>-43911.01346381976</v>
       </c>
-      <c r="AL23" t="inlineStr"/>
       <c r="AM23" t="n">
         <v>459292.8876394982</v>
       </c>
@@ -41758,7 +42522,6 @@
       <c r="AK24" t="n">
         <v>0</v>
       </c>
-      <c r="AL24" t="inlineStr"/>
       <c r="AM24" t="n">
         <v>4587044.677546538</v>
       </c>
@@ -42383,4 +43146,23 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
 </file>